--- a/model values.xlsx
+++ b/model values.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1240" windowWidth="21820" windowHeight="15000"/>
+    <workbookView xWindow="6040" yWindow="1100" windowWidth="21820" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="255">
   <si>
     <t>EGF-like</t>
   </si>
@@ -402,6 +402,390 @@
   </si>
   <si>
     <t>w26</t>
+  </si>
+  <si>
+    <t>Species #</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Parameter val</t>
+  </si>
+  <si>
+    <t>Parameter #</t>
+  </si>
+  <si>
+    <t>Parameter name</t>
+  </si>
+  <si>
+    <t>aEGFR</t>
+  </si>
+  <si>
+    <t>EGF binding EGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1_reaction_0 </t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>EGF releasing from EGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k2_reaction_0 </t>
+  </si>
+  <si>
+    <t>aSOS</t>
+  </si>
+  <si>
+    <t>Catalytic EGFR-&gt;SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_1 </t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Binding EGFR-&gt;SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_1 </t>
+  </si>
+  <si>
+    <t>aRAS</t>
+  </si>
+  <si>
+    <t>aSOS deactivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1_reaction_2 </t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>Cat aSOS to RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_3 </t>
+  </si>
+  <si>
+    <t>aRAF</t>
+  </si>
+  <si>
+    <t>Bind aSOS to RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_3 </t>
+  </si>
+  <si>
+    <t>RAF</t>
+  </si>
+  <si>
+    <t>cat RASGAP to aRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_4 </t>
+  </si>
+  <si>
+    <t>aMEK</t>
+  </si>
+  <si>
+    <t>bind RASGAP to aRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_4 </t>
+  </si>
+  <si>
+    <t>MEK</t>
+  </si>
+  <si>
+    <t>cat aRAS to RAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_5 </t>
+  </si>
+  <si>
+    <t>aERK</t>
+  </si>
+  <si>
+    <t>bind aRAS to RAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_5 </t>
+  </si>
+  <si>
+    <t>ERK</t>
+  </si>
+  <si>
+    <t>cat PP2ase to aRAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_6 </t>
+  </si>
+  <si>
+    <t>aRSK</t>
+  </si>
+  <si>
+    <t>bind PP2ase to aRAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_6 </t>
+  </si>
+  <si>
+    <t>RSK</t>
+  </si>
+  <si>
+    <t>cat aRAF to MEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_7 </t>
+  </si>
+  <si>
+    <t>aTACE</t>
+  </si>
+  <si>
+    <t>bind aRAF to MEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_7 </t>
+  </si>
+  <si>
+    <t>TACE</t>
+  </si>
+  <si>
+    <t>cat PP2ase to aMEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_8 </t>
+  </si>
+  <si>
+    <t>EGFl</t>
+  </si>
+  <si>
+    <t>bind PP2ase to aMEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_8 </t>
+  </si>
+  <si>
+    <t>pro_EGFl</t>
+  </si>
+  <si>
+    <t>cat aMEK to ERK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_9 </t>
+  </si>
+  <si>
+    <t>aPI3K</t>
+  </si>
+  <si>
+    <t>bind aMEK to ERK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_9 </t>
+  </si>
+  <si>
+    <t>PI3K</t>
+  </si>
+  <si>
+    <t>cat PP2ase to aERK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_10 </t>
+  </si>
+  <si>
+    <t>aAKT</t>
+  </si>
+  <si>
+    <t>bind PP2ase to aERK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_10 </t>
+  </si>
+  <si>
+    <t>AKT</t>
+  </si>
+  <si>
+    <t>cat aERK to RSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_11 </t>
+  </si>
+  <si>
+    <t>PP2ase</t>
+  </si>
+  <si>
+    <t>bind aERK to RSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_11 </t>
+  </si>
+  <si>
+    <t>RAF PPase</t>
+  </si>
+  <si>
+    <t>deacitvation of aRSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1_reaction_12 </t>
+  </si>
+  <si>
+    <t>RAS GAP</t>
+  </si>
+  <si>
+    <t>cat aRSK to aSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat_reaction_13 </t>
+  </si>
+  <si>
+    <t>bind aRSK to aSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km_reaction_13 </t>
+  </si>
+  <si>
+    <t>Internalization/Degradation of aEGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1_reaction_20 </t>
+  </si>
+  <si>
+    <t>EGFR synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_reaction_28 </t>
+  </si>
+  <si>
+    <t>EGFR loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1_reaction_29 </t>
+  </si>
+  <si>
+    <t>cat aEGFR-&gt;PI3K</t>
+  </si>
+  <si>
+    <t>Kcat_reaction_14</t>
+  </si>
+  <si>
+    <t>bind aEGFR-&gt;PI3K</t>
+  </si>
+  <si>
+    <t>km_reaction_14</t>
+  </si>
+  <si>
+    <t>cat aRas-&gt;PI3K</t>
+  </si>
+  <si>
+    <t>Kcat_reaction_15</t>
+  </si>
+  <si>
+    <t>bind aRas-&gt;PI3K</t>
+  </si>
+  <si>
+    <t>km_reaction_15</t>
+  </si>
+  <si>
+    <t>aPI3K deactivation</t>
+  </si>
+  <si>
+    <t>k1_reaction_16</t>
+  </si>
+  <si>
+    <t>cat aPI3K to AKT</t>
+  </si>
+  <si>
+    <t>Kcat_reaction_17</t>
+  </si>
+  <si>
+    <t>bind aPI3K to AKT</t>
+  </si>
+  <si>
+    <t>km_reaction_17</t>
+  </si>
+  <si>
+    <t>aAKT deactivation</t>
+  </si>
+  <si>
+    <t>k1_reaction_18</t>
+  </si>
+  <si>
+    <t>cat aAKT to aRAF</t>
+  </si>
+  <si>
+    <t>Kcat_reaction_19</t>
+  </si>
+  <si>
+    <t>bind aAKT to aRAF</t>
+  </si>
+  <si>
+    <t>km_reaction_19</t>
+  </si>
+  <si>
+    <t>cat ERK to TACE</t>
+  </si>
+  <si>
+    <t>Kcat_ERKTACE</t>
+  </si>
+  <si>
+    <t>bind ERK to TACE</t>
+  </si>
+  <si>
+    <t>km_ERKTACE</t>
+  </si>
+  <si>
+    <t>TACE degradation</t>
+  </si>
+  <si>
+    <t>k1_TACEdeg</t>
+  </si>
+  <si>
+    <t>TACE synthesis</t>
+  </si>
+  <si>
+    <t>k2_TACEsyn</t>
+  </si>
+  <si>
+    <t>cat TACE to proEGFl</t>
+  </si>
+  <si>
+    <t>Kcat_TACEpEGF</t>
+  </si>
+  <si>
+    <t>bind TACE to proEGFl</t>
+  </si>
+  <si>
+    <t>km_TACEpEGF</t>
+  </si>
+  <si>
+    <t>pro-EGFl degradation</t>
+  </si>
+  <si>
+    <t>k1_pEGFldeg</t>
+  </si>
+  <si>
+    <t>pro-EGFl synthesis</t>
+  </si>
+  <si>
+    <t>k2_pEGFlsyn</t>
+  </si>
+  <si>
+    <t>EGFl diffusion (away)</t>
+  </si>
+  <si>
+    <t>k3_dif</t>
   </si>
 </sst>
 </file>
@@ -417,15 +801,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -433,14 +823,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,19 +1148,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:31">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:31">
       <c r="C2" t="s">
         <v>8</v>
       </c>
@@ -823,8 +1230,29 @@
       <c r="U2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="W2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -879,8 +1307,29 @@
       <c r="U3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3">
+        <v>0.91728049714071502</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>2.19E-5</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -935,8 +1384,29 @@
       <c r="U4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y4">
+        <v>2364.1607957470301</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC4">
+        <v>0.12101000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -991,8 +1461,29 @@
       <c r="U5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y5">
+        <v>2.7380354417129098</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC5">
+        <v>694.73099999999999</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1047,8 +1538,29 @@
       <c r="U6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y6">
+        <v>119997.261964558</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6">
+        <v>6086070</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1103,8 +1615,29 @@
       <c r="U7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y7">
+        <v>4.3830471556326103</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7">
+        <v>2.5</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1692,29 @@
       <c r="U8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y8">
+        <v>119995.61695284399</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC8">
+        <v>32.344000000000001</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1215,8 +1769,29 @@
       <c r="U9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y9">
+        <v>0.77934621616662603</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC9">
+        <v>35954.300000000003</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1271,8 +1846,29 @@
       <c r="U10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y10">
+        <v>119999.220653784</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC10">
+        <v>1509.36</v>
+      </c>
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1327,8 +1923,29 @@
       <c r="U11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y11">
+        <v>62.9724512404877</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC11">
+        <v>1432410</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1383,8 +2000,29 @@
       <c r="U12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y12">
+        <v>599937.02754875703</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC12">
+        <v>0.8841</v>
+      </c>
+      <c r="AD12">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1439,8 +2077,29 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y13">
+        <v>1932.71686590539</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC13">
+        <v>62464.6</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1495,8 +2154,29 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y14">
+        <v>598067.28313410399</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC14">
+        <v>0.12633</v>
+      </c>
+      <c r="AD14">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1551,8 +2231,29 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15">
+        <v>1112.9258164830501</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC15">
+        <v>1061.71</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1607,8 +2308,29 @@
       <c r="U16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y16">
+        <v>118887.07418351799</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC16">
+        <v>185.75899999999999</v>
+      </c>
+      <c r="AD16">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1663,8 +2385,29 @@
       <c r="U17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17">
+        <v>10.8615791975676</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC17">
+        <v>4768350</v>
+      </c>
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1719,8 +2462,29 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18">
+        <v>421.66649051207798</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC18">
+        <v>2.8323999999999998</v>
+      </c>
+      <c r="AD18">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1775,8 +2539,29 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19">
+        <v>15.4313589872344</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC19">
+        <v>518753</v>
+      </c>
+      <c r="AD19">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1831,8 +2616,29 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20">
+        <v>1273.8834535886299</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC20">
+        <v>9.8536999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1887,8 +2693,29 @@
       <c r="U21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21">
+        <v>788.16101714276704</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC21">
+        <v>1007340</v>
+      </c>
+      <c r="AD21">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1943,8 +2770,29 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22">
+        <v>119211.838982856</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC22">
+        <v>8.8911999999999995</v>
+      </c>
+      <c r="AD22">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1999,8 +2847,29 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y23">
+        <v>1370.6597551411201</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC23">
+        <v>3496490</v>
+      </c>
+      <c r="AD23">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2055,8 +2924,29 @@
       <c r="U24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" s="2" customFormat="1">
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y24">
+        <v>118629.340244858</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC24">
+        <v>2.137E-2</v>
+      </c>
+      <c r="AD24">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -2111,8 +3001,31 @@
       <c r="U25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y25">
+        <v>47060.7</v>
+      </c>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC25">
+        <v>763523</v>
+      </c>
+      <c r="AD25">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2161,8 +3074,29 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" s="2" customFormat="1">
+      <c r="W26">
+        <v>24</v>
+      </c>
+      <c r="X26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y26">
+        <v>26041.7</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD26">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>121</v>
       </c>
@@ -2214,8 +3148,31 @@
       <c r="U27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y27">
+        <v>14754.1</v>
+      </c>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC27">
+        <v>1611.97</v>
+      </c>
+      <c r="AD27">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2261,9 +3218,34 @@
       <c r="U28" s="1">
         <v>0</v>
       </c>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="AB28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>896896</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>26</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="AB29" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AD29">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -2300,8 +3282,20 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="AB30" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>118.896</v>
+      </c>
+      <c r="AD30">
+        <v>28</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2338,8 +3332,20 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="AB31" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>29</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2376,8 +3382,20 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="AB32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC32" s="7">
+        <v>10.6737</v>
+      </c>
+      <c r="AD32">
+        <v>30</v>
+      </c>
+      <c r="AE32" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2414,8 +3432,20 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="AB33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>184912</v>
+      </c>
+      <c r="AD33">
+        <v>31</v>
+      </c>
+      <c r="AE33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2452,8 +3482,20 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="AB34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>7.7106999999999995E-2</v>
+      </c>
+      <c r="AD34">
+        <v>32</v>
+      </c>
+      <c r="AE34" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2489,6 +3531,228 @@
       </c>
       <c r="L35">
         <v>0</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>272056</v>
+      </c>
+      <c r="AD35">
+        <v>33</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="AB36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD36">
+        <v>34</v>
+      </c>
+      <c r="AE36" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="AB37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>5.6627999999999998E-2</v>
+      </c>
+      <c r="AD37">
+        <v>35</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="AB38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>653951</v>
+      </c>
+      <c r="AD38">
+        <v>36</v>
+      </c>
+      <c r="AE38" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="AB39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD39">
+        <v>37</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="AB40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>15.1212</v>
+      </c>
+      <c r="AD40">
+        <v>38</v>
+      </c>
+      <c r="AE40" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="AB41" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC41" s="8">
+        <v>119355</v>
+      </c>
+      <c r="AD41">
+        <v>39</v>
+      </c>
+      <c r="AE41" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="AB42" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD42">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="AB43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="AD43">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="AB44" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AD44">
+        <v>42</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="AB45" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>8.1461799999999993</v>
+      </c>
+      <c r="AD45">
+        <v>43</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="AB46" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD46">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="AB47" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AD47">
+        <v>45</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="AB48" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AD48">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="28:31">
+      <c r="AB49" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>23.765799999999999</v>
+      </c>
+      <c r="AD49">
+        <v>47</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="28:31">
+      <c r="AB50" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="AD50">
+        <v>48</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
